--- a/planning-doc.xlsx
+++ b/planning-doc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\grupo-planeta-r-training-part-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75284AC-490E-48DA-8CE6-AAE74117C529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A58C0F-8567-4269-8591-4C87B2272445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>session #</t>
   </si>
@@ -42,9 +42,6 @@
     <t>kahoot warmup</t>
   </si>
   <si>
-    <t>https://chat.openai.com/share/ae2b0a37-f44b-4a17-acdb-9783f63b3ea7</t>
-  </si>
-  <si>
     <t>Descriptive stats</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Needs som work</t>
   </si>
   <si>
-    <t>https://chat.openai.com/share/c3ae3105-3ff7-4e4a-bc90-2df6eb2e1a17</t>
-  </si>
-  <si>
     <t>Statistical modeling</t>
   </si>
   <si>
@@ -79,6 +73,15 @@
   </si>
   <si>
     <t>https://chat.openai.com/share/51adcc34-0b6d-42d5-a82b-35097e3ab1b5</t>
+  </si>
+  <si>
+    <t>https://create.kahoot.it/details/658b52b6-5ad6-47f0-9d06-abfcffef19ef</t>
+  </si>
+  <si>
+    <t>https://create.kahoot.it/creator/c84141f0-c43d-4ddb-a589-78ae3dee1f58</t>
+  </si>
+  <si>
+    <t>https://create.kahoot.it/creator/7f354616-cdae-4fe2-8211-e6608cd4050f</t>
   </si>
 </sst>
 </file>
@@ -429,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -462,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -479,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -496,33 +499,33 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
